--- a/analysis/edcr (validation)/out/top_f1/nickel_shift_new_20_results.xlsx
+++ b/analysis/edcr (validation)/out/top_f1/nickel_shift_new_20_results.xlsx
@@ -576,31 +576,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L2">
-        <v>0.8333333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="M2">
-        <v>0.2941176470588235</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="N2">
-        <v>0.4347826086956522</v>
+        <v>0.576</v>
       </c>
       <c r="O2">
-        <v>0.261904761904762</v>
+        <v>-0.008928571428571397</v>
       </c>
       <c r="P2">
-        <v>-0.1058823529411765</v>
+        <v>0.1901639344262295</v>
       </c>
       <c r="Q2">
-        <v>-0.03580562659846542</v>
+        <v>0.1054117647058823</v>
       </c>
       <c r="R2">
-        <v>0.4583333333333335</v>
+        <v>-0.01562499999999994</v>
       </c>
       <c r="S2">
-        <v>-0.2647058823529412</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="T2">
-        <v>-0.07608695652173902</v>
+        <v>0.2239999999999999</v>
       </c>
       <c r="U2" t="s">
         <v>31</v>
@@ -641,31 +641,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L3">
-        <v>0.8333333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="M3">
-        <v>0.2941176470588235</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="N3">
-        <v>0.4347826086956522</v>
+        <v>0.576</v>
       </c>
       <c r="O3">
-        <v>0.261904761904762</v>
+        <v>-0.008928571428571397</v>
       </c>
       <c r="P3">
-        <v>-0.1058823529411765</v>
+        <v>0.1901639344262295</v>
       </c>
       <c r="Q3">
-        <v>-0.03580562659846542</v>
+        <v>0.1054117647058823</v>
       </c>
       <c r="R3">
-        <v>0.4583333333333335</v>
+        <v>-0.01562499999999994</v>
       </c>
       <c r="S3">
-        <v>-0.2647058823529412</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="T3">
-        <v>-0.07608695652173902</v>
+        <v>0.2239999999999999</v>
       </c>
       <c r="U3" t="s">
         <v>31</v>
@@ -706,31 +706,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="M4">
-        <v>0.2352941176470588</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="N4">
-        <v>0.3809523809523809</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="O4">
-        <v>0.4285714285714286</v>
+        <v>0.02040816326530615</v>
       </c>
       <c r="P4">
-        <v>-0.1647058823529412</v>
+        <v>0.07540983606557372</v>
       </c>
       <c r="Q4">
-        <v>-0.08963585434173671</v>
+        <v>0.0566844919786097</v>
       </c>
       <c r="R4">
-        <v>0.7500000000000001</v>
+        <v>0.03571428571428575</v>
       </c>
       <c r="S4">
-        <v>-0.411764705882353</v>
+        <v>0.1885245901639343</v>
       </c>
       <c r="T4">
-        <v>-0.1904761904761905</v>
+        <v>0.1204545454545456</v>
       </c>
       <c r="U4" t="s">
         <v>31</v>
@@ -771,31 +771,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="M5">
-        <v>0.2352941176470588</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="N5">
-        <v>0.3809523809523809</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="O5">
-        <v>0.4285714285714286</v>
+        <v>0.02040816326530615</v>
       </c>
       <c r="P5">
-        <v>-0.1647058823529412</v>
+        <v>0.07540983606557372</v>
       </c>
       <c r="Q5">
-        <v>-0.08963585434173671</v>
+        <v>0.0566844919786097</v>
       </c>
       <c r="R5">
-        <v>0.7500000000000001</v>
+        <v>0.03571428571428575</v>
       </c>
       <c r="S5">
-        <v>-0.411764705882353</v>
+        <v>0.1885245901639343</v>
       </c>
       <c r="T5">
-        <v>-0.1904761904761905</v>
+        <v>0.1204545454545456</v>
       </c>
       <c r="U5" t="s">
         <v>31</v>
@@ -836,31 +836,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="M6">
-        <v>0.2352941176470588</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="N6">
-        <v>0.3809523809523809</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="O6">
-        <v>0.4285714285714286</v>
+        <v>0.02040816326530615</v>
       </c>
       <c r="P6">
-        <v>-0.1647058823529412</v>
+        <v>0.07540983606557372</v>
       </c>
       <c r="Q6">
-        <v>-0.08963585434173671</v>
+        <v>0.0566844919786097</v>
       </c>
       <c r="R6">
-        <v>0.7500000000000001</v>
+        <v>0.03571428571428575</v>
       </c>
       <c r="S6">
-        <v>-0.411764705882353</v>
+        <v>0.1885245901639343</v>
       </c>
       <c r="T6">
-        <v>-0.1904761904761905</v>
+        <v>0.1204545454545456</v>
       </c>
       <c r="U6" t="s">
         <v>31</v>
@@ -898,31 +898,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M7">
-        <v>0.2941176470588235</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="N7">
-        <v>0.4545454545454545</v>
+        <v>0.5950413223140496</v>
       </c>
       <c r="O7">
-        <v>0.4285714285714286</v>
+        <v>0.02857142857142858</v>
       </c>
       <c r="P7">
-        <v>-0.1058823529411765</v>
+        <v>0.1901639344262295</v>
       </c>
       <c r="Q7">
-        <v>-0.01604278074866311</v>
+        <v>0.124453087019932</v>
       </c>
       <c r="R7">
-        <v>0.7500000000000001</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="S7">
-        <v>-0.2647058823529412</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="T7">
-        <v>-0.03409090909090911</v>
+        <v>0.2644628099173554</v>
       </c>
       <c r="U7" t="s">
         <v>31</v>
@@ -963,31 +963,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="M8">
-        <v>0.2941176470588235</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="N8">
-        <v>0.4545454545454545</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="O8">
-        <v>0.4285714285714286</v>
+        <v>0.03201970443349755</v>
       </c>
       <c r="P8">
-        <v>-0.1058823529411765</v>
+        <v>0.1737704918032786</v>
       </c>
       <c r="Q8">
-        <v>-0.01604278074866311</v>
+        <v>0.1176470588235293</v>
       </c>
       <c r="R8">
-        <v>0.7500000000000001</v>
+        <v>0.05603448275862072</v>
       </c>
       <c r="S8">
-        <v>-0.2647058823529412</v>
+        <v>0.4344262295081966</v>
       </c>
       <c r="T8">
-        <v>-0.03409090909090911</v>
+        <v>0.2499999999999998</v>
       </c>
       <c r="U8" t="s">
         <v>31</v>
@@ -1028,31 +1028,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="M9">
-        <v>0.2352941176470588</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="N9">
-        <v>0.3809523809523809</v>
+        <v>0.5739130434782609</v>
       </c>
       <c r="O9">
-        <v>0.4285714285714286</v>
+        <v>0.03968253968253976</v>
       </c>
       <c r="P9">
-        <v>-0.1647058823529412</v>
+        <v>0.1409836065573771</v>
       </c>
       <c r="Q9">
-        <v>-0.08963585434173671</v>
+        <v>0.1033248081841432</v>
       </c>
       <c r="R9">
-        <v>0.7500000000000001</v>
+        <v>0.06944444444444459</v>
       </c>
       <c r="S9">
-        <v>-0.411764705882353</v>
+        <v>0.3524590163934427</v>
       </c>
       <c r="T9">
-        <v>-0.1904761904761905</v>
+        <v>0.2195652173913044</v>
       </c>
       <c r="U9" t="s">
         <v>31</v>
@@ -1093,31 +1093,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="M10">
-        <v>0.2352941176470588</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="N10">
-        <v>0.3809523809523809</v>
+        <v>0.5739130434782609</v>
       </c>
       <c r="O10">
-        <v>0.4285714285714286</v>
+        <v>0.03968253968253976</v>
       </c>
       <c r="P10">
-        <v>-0.1647058823529412</v>
+        <v>0.1409836065573771</v>
       </c>
       <c r="Q10">
-        <v>-0.08963585434173671</v>
+        <v>0.1033248081841432</v>
       </c>
       <c r="R10">
-        <v>0.7500000000000001</v>
+        <v>0.06944444444444459</v>
       </c>
       <c r="S10">
-        <v>-0.411764705882353</v>
+        <v>0.3524590163934427</v>
       </c>
       <c r="T10">
-        <v>-0.1904761904761905</v>
+        <v>0.2195652173913044</v>
       </c>
       <c r="U10" t="s">
         <v>31</v>
@@ -1158,31 +1158,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="M11">
-        <v>0.2352941176470588</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="N11">
-        <v>0.3809523809523809</v>
+        <v>0.5739130434782609</v>
       </c>
       <c r="O11">
-        <v>0.4285714285714286</v>
+        <v>0.03968253968253976</v>
       </c>
       <c r="P11">
-        <v>-0.1647058823529412</v>
+        <v>0.1409836065573771</v>
       </c>
       <c r="Q11">
-        <v>-0.08963585434173671</v>
+        <v>0.1033248081841432</v>
       </c>
       <c r="R11">
-        <v>0.7500000000000001</v>
+        <v>0.06944444444444459</v>
       </c>
       <c r="S11">
-        <v>-0.411764705882353</v>
+        <v>0.3524590163934427</v>
       </c>
       <c r="T11">
-        <v>-0.1904761904761905</v>
+        <v>0.2195652173913044</v>
       </c>
       <c r="U11" t="s">
         <v>31</v>
@@ -1220,31 +1220,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L12">
-        <v>0.5384615384615384</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="M12">
-        <v>0.4117647058823529</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="N12">
-        <v>0.4666666666666667</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="O12">
-        <v>0.2051282051282051</v>
+        <v>0.04057971014492756</v>
       </c>
       <c r="P12">
-        <v>-0.1882352941176471</v>
+        <v>0.1049180327868853</v>
       </c>
       <c r="Q12">
-        <v>0.03809523809523813</v>
+        <v>0.0600649350649351</v>
       </c>
       <c r="R12">
-        <v>0.6153846153846154</v>
+        <v>0.1217391304347827</v>
       </c>
       <c r="S12">
-        <v>-0.3137254901960784</v>
+        <v>0.1748633879781421</v>
       </c>
       <c r="T12">
-        <v>0.08888888888888896</v>
+        <v>0.1401515151515152</v>
       </c>
       <c r="U12" t="s">
         <v>32</v>
@@ -1285,31 +1285,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L13">
-        <v>0.5384615384615384</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="M13">
-        <v>0.4117647058823529</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="N13">
-        <v>0.4666666666666667</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="O13">
-        <v>0.2051282051282051</v>
+        <v>0.04057971014492756</v>
       </c>
       <c r="P13">
-        <v>-0.1882352941176471</v>
+        <v>0.1049180327868853</v>
       </c>
       <c r="Q13">
-        <v>0.03809523809523813</v>
+        <v>0.0600649350649351</v>
       </c>
       <c r="R13">
-        <v>0.6153846153846154</v>
+        <v>0.1217391304347827</v>
       </c>
       <c r="S13">
-        <v>-0.3137254901960784</v>
+        <v>0.1748633879781421</v>
       </c>
       <c r="T13">
-        <v>0.08888888888888896</v>
+        <v>0.1401515151515152</v>
       </c>
       <c r="U13" t="s">
         <v>32</v>
@@ -1350,31 +1350,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L14">
-        <v>0.5384615384615384</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="M14">
-        <v>0.4117647058823529</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="N14">
-        <v>0.4666666666666667</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="O14">
-        <v>0.2051282051282051</v>
+        <v>0.03900709219858156</v>
       </c>
       <c r="P14">
-        <v>-0.1882352941176471</v>
+        <v>-0.02622950819672132</v>
       </c>
       <c r="Q14">
-        <v>0.03809523809523813</v>
+        <v>0.02304147465437789</v>
       </c>
       <c r="R14">
-        <v>0.6153846153846154</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="S14">
-        <v>-0.3137254901960784</v>
+        <v>-0.04371584699453553</v>
       </c>
       <c r="T14">
-        <v>0.08888888888888896</v>
+        <v>0.05376344086021508</v>
       </c>
       <c r="U14" t="s">
         <v>32</v>
@@ -1415,31 +1415,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L15">
-        <v>0.5384615384615384</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="M15">
-        <v>0.4117647058823529</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="N15">
-        <v>0.4666666666666667</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="O15">
-        <v>0.2051282051282051</v>
+        <v>0.03900709219858156</v>
       </c>
       <c r="P15">
-        <v>-0.1882352941176471</v>
+        <v>-0.02622950819672132</v>
       </c>
       <c r="Q15">
-        <v>0.03809523809523813</v>
+        <v>0.02304147465437789</v>
       </c>
       <c r="R15">
-        <v>0.6153846153846154</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="S15">
-        <v>-0.3137254901960784</v>
+        <v>-0.04371584699453553</v>
       </c>
       <c r="T15">
-        <v>0.08888888888888896</v>
+        <v>0.05376344086021508</v>
       </c>
       <c r="U15" t="s">
         <v>32</v>
@@ -1480,31 +1480,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L16">
-        <v>0.5384615384615384</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="M16">
-        <v>0.4117647058823529</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="N16">
-        <v>0.4666666666666667</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="O16">
-        <v>0.2051282051282051</v>
+        <v>0.03900709219858156</v>
       </c>
       <c r="P16">
-        <v>-0.1882352941176471</v>
+        <v>-0.02622950819672132</v>
       </c>
       <c r="Q16">
-        <v>0.03809523809523813</v>
+        <v>0.02304147465437789</v>
       </c>
       <c r="R16">
-        <v>0.6153846153846154</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="S16">
-        <v>-0.3137254901960784</v>
+        <v>-0.04371584699453553</v>
       </c>
       <c r="T16">
-        <v>0.08888888888888896</v>
+        <v>0.05376344086021508</v>
       </c>
       <c r="U16" t="s">
         <v>32</v>
@@ -1542,31 +1542,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L17">
-        <v>0.6111111111111112</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="M17">
-        <v>0.6470588235294118</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="N17">
-        <v>0.6285714285714287</v>
+        <v>0.502994011976048</v>
       </c>
       <c r="O17">
-        <v>0.2777777777777778</v>
+        <v>0.06289308176100633</v>
       </c>
       <c r="P17">
-        <v>0.04705882352941182</v>
+        <v>0.08852459016393444</v>
       </c>
       <c r="Q17">
-        <v>0.2000000000000001</v>
+        <v>0.07442258340461944</v>
       </c>
       <c r="R17">
-        <v>0.8333333333333336</v>
+        <v>0.188679245283019</v>
       </c>
       <c r="S17">
-        <v>0.0784313725490197</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="T17">
-        <v>0.466666666666667</v>
+        <v>0.1736526946107787</v>
       </c>
       <c r="U17" t="s">
         <v>32</v>
@@ -1607,31 +1607,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L18">
-        <v>0.6111111111111112</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="M18">
-        <v>0.6470588235294118</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="N18">
-        <v>0.6285714285714287</v>
+        <v>0.502994011976048</v>
       </c>
       <c r="O18">
-        <v>0.2777777777777778</v>
+        <v>0.06289308176100633</v>
       </c>
       <c r="P18">
-        <v>0.04705882352941182</v>
+        <v>0.08852459016393444</v>
       </c>
       <c r="Q18">
-        <v>0.2000000000000001</v>
+        <v>0.07442258340461944</v>
       </c>
       <c r="R18">
-        <v>0.8333333333333336</v>
+        <v>0.188679245283019</v>
       </c>
       <c r="S18">
-        <v>0.0784313725490197</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="T18">
-        <v>0.466666666666667</v>
+        <v>0.1736526946107787</v>
       </c>
       <c r="U18" t="s">
         <v>32</v>
@@ -1672,31 +1672,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L19">
-        <v>0.5384615384615384</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="M19">
-        <v>0.4117647058823529</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="N19">
-        <v>0.4666666666666667</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="O19">
-        <v>0.2051282051282051</v>
+        <v>0.04290429042904292</v>
       </c>
       <c r="P19">
-        <v>-0.1882352941176471</v>
+        <v>0.0229508196721312</v>
       </c>
       <c r="Q19">
-        <v>0.03809523809523813</v>
+        <v>0.04056437389770728</v>
       </c>
       <c r="R19">
-        <v>0.6153846153846154</v>
+        <v>0.1287128712871288</v>
       </c>
       <c r="S19">
-        <v>-0.3137254901960784</v>
+        <v>0.03825136612021866</v>
       </c>
       <c r="T19">
-        <v>0.08888888888888896</v>
+        <v>0.094650205761317</v>
       </c>
       <c r="U19" t="s">
         <v>32</v>
@@ -1737,31 +1737,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L20">
-        <v>0.5384615384615384</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="M20">
-        <v>0.4117647058823529</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="N20">
-        <v>0.4666666666666667</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="O20">
-        <v>0.2051282051282051</v>
+        <v>0.04290429042904292</v>
       </c>
       <c r="P20">
-        <v>-0.1882352941176471</v>
+        <v>0.0229508196721312</v>
       </c>
       <c r="Q20">
-        <v>0.03809523809523813</v>
+        <v>0.04056437389770728</v>
       </c>
       <c r="R20">
-        <v>0.6153846153846154</v>
+        <v>0.1287128712871288</v>
       </c>
       <c r="S20">
-        <v>-0.3137254901960784</v>
+        <v>0.03825136612021866</v>
       </c>
       <c r="T20">
-        <v>0.08888888888888896</v>
+        <v>0.094650205761317</v>
       </c>
       <c r="U20" t="s">
         <v>32</v>
@@ -1802,31 +1802,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L21">
-        <v>0.5384615384615384</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="M21">
-        <v>0.4117647058823529</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="N21">
-        <v>0.4666666666666667</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="O21">
-        <v>0.2051282051282051</v>
+        <v>0.04290429042904292</v>
       </c>
       <c r="P21">
-        <v>-0.1882352941176471</v>
+        <v>0.0229508196721312</v>
       </c>
       <c r="Q21">
-        <v>0.03809523809523813</v>
+        <v>0.04056437389770728</v>
       </c>
       <c r="R21">
-        <v>0.6153846153846154</v>
+        <v>0.1287128712871288</v>
       </c>
       <c r="S21">
-        <v>-0.3137254901960784</v>
+        <v>0.03825136612021866</v>
       </c>
       <c r="T21">
-        <v>0.08888888888888896</v>
+        <v>0.094650205761317</v>
       </c>
       <c r="U21" t="s">
         <v>32</v>
@@ -1864,31 +1864,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="M22">
-        <v>0.1176470588235294</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="N22">
-        <v>0.2105263157894737</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="O22">
-        <v>0.6666666666666667</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="P22">
-        <v>-0.0823529411764706</v>
+        <v>0.1770491803278688</v>
       </c>
       <c r="Q22">
-        <v>-0.03947368421052633</v>
+        <v>0.2291666666666666</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="S22">
-        <v>-0.411764705882353</v>
+        <v>0.885245901639344</v>
       </c>
       <c r="T22">
-        <v>-0.1578947368421053</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="U22" t="s">
         <v>33</v>
@@ -1929,31 +1929,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="M23">
-        <v>0.1176470588235294</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="N23">
-        <v>0.2105263157894737</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="O23">
-        <v>0.6666666666666667</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="P23">
-        <v>-0.0823529411764706</v>
+        <v>0.1770491803278688</v>
       </c>
       <c r="Q23">
-        <v>-0.03947368421052633</v>
+        <v>0.2291666666666666</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="S23">
-        <v>-0.411764705882353</v>
+        <v>0.885245901639344</v>
       </c>
       <c r="T23">
-        <v>-0.1578947368421053</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="U23" t="s">
         <v>33</v>
@@ -1994,31 +1994,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="M24">
-        <v>0.1176470588235294</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="N24">
-        <v>0.2105263157894737</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="O24">
-        <v>0.6666666666666667</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="P24">
-        <v>-0.0823529411764706</v>
+        <v>0.1770491803278688</v>
       </c>
       <c r="Q24">
-        <v>-0.03947368421052633</v>
+        <v>0.2291666666666666</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="S24">
-        <v>-0.411764705882353</v>
+        <v>0.885245901639344</v>
       </c>
       <c r="T24">
-        <v>-0.1578947368421053</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="U24" t="s">
         <v>33</v>
@@ -2059,31 +2059,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="M25">
-        <v>0.1176470588235294</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="N25">
-        <v>0.2105263157894737</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="O25">
-        <v>0.6666666666666667</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="P25">
-        <v>-0.0823529411764706</v>
+        <v>0.1770491803278688</v>
       </c>
       <c r="Q25">
-        <v>-0.03947368421052633</v>
+        <v>0.2291666666666666</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="S25">
-        <v>-0.411764705882353</v>
+        <v>0.885245901639344</v>
       </c>
       <c r="T25">
-        <v>-0.1578947368421053</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="U25" t="s">
         <v>33</v>
@@ -2124,31 +2124,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="M26">
-        <v>0.1176470588235294</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="N26">
-        <v>0.2105263157894737</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="O26">
-        <v>0.6666666666666667</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="P26">
-        <v>-0.0823529411764706</v>
+        <v>0.1770491803278688</v>
       </c>
       <c r="Q26">
-        <v>-0.03947368421052633</v>
+        <v>0.2291666666666666</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="S26">
-        <v>-0.411764705882353</v>
+        <v>0.885245901639344</v>
       </c>
       <c r="T26">
-        <v>-0.1578947368421053</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="U26" t="s">
         <v>33</v>
@@ -2186,31 +2186,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L27">
-        <v>0.75</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="M27">
-        <v>0.1764705882352941</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="N27">
-        <v>0.2857142857142857</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="O27">
-        <v>0.4166666666666667</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="P27">
-        <v>-0.02352941176470588</v>
+        <v>0.2098360655737705</v>
       </c>
       <c r="Q27">
-        <v>0.0357142857142857</v>
+        <v>0.2602040816326531</v>
       </c>
       <c r="R27">
-        <v>1.25</v>
+        <v>1.027027027027027</v>
       </c>
       <c r="S27">
-        <v>-0.1176470588235294</v>
+        <v>1.049180327868852</v>
       </c>
       <c r="T27">
-        <v>0.1428571428571428</v>
+        <v>1.040816326530612</v>
       </c>
       <c r="U27" t="s">
         <v>33</v>
@@ -2251,31 +2251,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L28">
-        <v>0.75</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M28">
-        <v>0.1764705882352941</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="N28">
-        <v>0.2857142857142857</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="O28">
-        <v>0.4166666666666667</v>
+        <v>0.3508771929824562</v>
       </c>
       <c r="P28">
-        <v>-0.02352941176470588</v>
+        <v>0.2262295081967213</v>
       </c>
       <c r="Q28">
-        <v>0.0357142857142857</v>
+        <v>0.2752525252525253</v>
       </c>
       <c r="R28">
-        <v>1.25</v>
+        <v>1.052631578947369</v>
       </c>
       <c r="S28">
-        <v>-0.1176470588235294</v>
+        <v>1.131147540983606</v>
       </c>
       <c r="T28">
-        <v>0.1428571428571428</v>
+        <v>1.101010101010101</v>
       </c>
       <c r="U28" t="s">
         <v>33</v>
@@ -2316,31 +2316,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="M29">
-        <v>0.1176470588235294</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="N29">
-        <v>0.2105263157894737</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="O29">
-        <v>0.6666666666666667</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="P29">
-        <v>-0.0823529411764706</v>
+        <v>0.1770491803278688</v>
       </c>
       <c r="Q29">
-        <v>-0.03947368421052633</v>
+        <v>0.2291666666666666</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="S29">
-        <v>-0.411764705882353</v>
+        <v>0.885245901639344</v>
       </c>
       <c r="T29">
-        <v>-0.1578947368421053</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="U29" t="s">
         <v>33</v>
@@ -2381,31 +2381,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="M30">
-        <v>0.1176470588235294</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="N30">
-        <v>0.2105263157894737</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="O30">
-        <v>0.6666666666666667</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="P30">
-        <v>-0.0823529411764706</v>
+        <v>0.1770491803278688</v>
       </c>
       <c r="Q30">
-        <v>-0.03947368421052633</v>
+        <v>0.2291666666666666</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="S30">
-        <v>-0.411764705882353</v>
+        <v>0.885245901639344</v>
       </c>
       <c r="T30">
-        <v>-0.1578947368421053</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="U30" t="s">
         <v>33</v>
@@ -2446,31 +2446,31 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="M31">
-        <v>0.1176470588235294</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="N31">
-        <v>0.2105263157894737</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="O31">
-        <v>0.6666666666666667</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="P31">
-        <v>-0.0823529411764706</v>
+        <v>0.1770491803278688</v>
       </c>
       <c r="Q31">
-        <v>-0.03947368421052633</v>
+        <v>0.2291666666666666</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="S31">
-        <v>-0.411764705882353</v>
+        <v>0.885245901639344</v>
       </c>
       <c r="T31">
-        <v>-0.1578947368421053</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="U31" t="s">
         <v>33</v>
@@ -2508,22 +2508,22 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L32">
-        <v>0.5333333333333333</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="M32">
-        <v>0.4705882352941176</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="N32">
-        <v>0.5</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="O32">
-        <v>0.5333333333333333</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="P32">
-        <v>0.4705882352941176</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2570,22 +2570,22 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L33">
-        <v>0.625</v>
+        <v>0.3644067796610169</v>
       </c>
       <c r="M33">
-        <v>0.2941176470588235</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="N33">
-        <v>0.4</v>
+        <v>0.4804469273743016</v>
       </c>
       <c r="O33">
-        <v>0.625</v>
+        <v>0.3644067796610169</v>
       </c>
       <c r="P33">
-        <v>0.2941176470588235</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="Q33">
-        <v>0.4</v>
+        <v>0.4804469273743016</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -2632,22 +2632,22 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M34">
-        <v>0.2352941176470588</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="N34">
-        <v>0.3809523809523809</v>
+        <v>0.4657534246575343</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P34">
-        <v>0.2352941176470588</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="Q34">
-        <v>0.3809523809523809</v>
+        <v>0.4657534246575343</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -2694,22 +2694,22 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M35">
-        <v>0.2352941176470588</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="N35">
-        <v>0.3809523809523809</v>
+        <v>0.4657534246575343</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P35">
-        <v>0.2352941176470588</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="Q35">
-        <v>0.3809523809523809</v>
+        <v>0.4657534246575343</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -2756,22 +2756,22 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M36">
-        <v>0.2352941176470588</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="N36">
-        <v>0.3809523809523809</v>
+        <v>0.4657534246575343</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P36">
-        <v>0.2352941176470588</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="Q36">
-        <v>0.3809523809523809</v>
+        <v>0.4657534246575343</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -2815,22 +2815,22 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L37">
-        <v>0.8333333333333334</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="M37">
-        <v>0.5882352941176471</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="N37">
-        <v>0.6896551724137931</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="O37">
-        <v>0.8333333333333334</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="P37">
-        <v>0.5882352941176471</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="Q37">
-        <v>0.6896551724137931</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -2877,22 +2877,22 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L38">
-        <v>0.25</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="M38">
-        <v>0.05882352941176471</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="N38">
-        <v>0.09523809523809523</v>
+        <v>0.3393939393939394</v>
       </c>
       <c r="O38">
-        <v>0.25</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="P38">
-        <v>0.05882352941176471</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="Q38">
-        <v>0.09523809523809523</v>
+        <v>0.3393939393939394</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -2939,22 +2939,22 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L39">
-        <v>0.8333333333333334</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="M39">
-        <v>0.5882352941176471</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="N39">
-        <v>0.6896551724137931</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="O39">
-        <v>0.8333333333333334</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="P39">
-        <v>0.5882352941176471</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="Q39">
-        <v>0.6896551724137931</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L40">
-        <v>0.8333333333333334</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="M40">
-        <v>0.5882352941176471</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="N40">
-        <v>0.6896551724137931</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="O40">
-        <v>0.8333333333333334</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="P40">
-        <v>0.5882352941176471</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="Q40">
-        <v>0.6896551724137931</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3063,22 +3063,22 @@
         <v>0.1418604651162791</v>
       </c>
       <c r="L41">
-        <v>0.8333333333333334</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="M41">
-        <v>0.5882352941176471</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="N41">
-        <v>0.6896551724137931</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="O41">
-        <v>0.8333333333333334</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="P41">
-        <v>0.5882352941176471</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="Q41">
-        <v>0.6896551724137931</v>
+        <v>0.5063291139240507</v>
       </c>
       <c r="R41">
         <v>0</v>

--- a/analysis/edcr (validation)/out/top_f1/nickel_shift_new_20_results.xlsx
+++ b/analysis/edcr (validation)/out/top_f1/nickel_shift_new_20_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
   <si>
     <t>Model</t>
   </si>
@@ -109,10 +109,13 @@
     <t>detection_correction</t>
   </si>
   <si>
-    <t>Best Precision, Best F1</t>
+    <t>Best F1</t>
   </si>
   <si>
     <t>Best Recall</t>
+  </si>
+  <si>
+    <t>Best Precision</t>
   </si>
   <si>
     <t>Worst F1</t>
@@ -564,13 +567,13 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="H2">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J2">
-        <v>0.4705882352941176</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K2">
         <v>0.1418604651162791</v>
@@ -585,22 +588,22 @@
         <v>0.576</v>
       </c>
       <c r="O2">
-        <v>-0.008928571428571397</v>
+        <v>-0.02933673469387754</v>
       </c>
       <c r="P2">
-        <v>0.1901639344262295</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q2">
-        <v>0.1054117647058823</v>
+        <v>0.04872727272727262</v>
       </c>
       <c r="R2">
-        <v>-0.01562499999999994</v>
+        <v>-0.04956896551724137</v>
       </c>
       <c r="S2">
-        <v>0.4754098360655737</v>
+        <v>0.2413793103448278</v>
       </c>
       <c r="T2">
-        <v>0.2239999999999999</v>
+        <v>0.09241379310344806</v>
       </c>
       <c r="U2" t="s">
         <v>31</v>
@@ -629,13 +632,13 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="H3">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J3">
-        <v>0.4705882352941176</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K3">
         <v>0.1418604651162791</v>
@@ -650,22 +653,22 @@
         <v>0.576</v>
       </c>
       <c r="O3">
-        <v>-0.008928571428571397</v>
+        <v>-0.02933673469387754</v>
       </c>
       <c r="P3">
-        <v>0.1901639344262295</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q3">
-        <v>0.1054117647058823</v>
+        <v>0.04872727272727262</v>
       </c>
       <c r="R3">
-        <v>-0.01562499999999994</v>
+        <v>-0.04956896551724137</v>
       </c>
       <c r="S3">
-        <v>0.4754098360655737</v>
+        <v>0.2413793103448278</v>
       </c>
       <c r="T3">
-        <v>0.2239999999999999</v>
+        <v>0.09241379310344806</v>
       </c>
       <c r="U3" t="s">
         <v>31</v>
@@ -694,13 +697,13 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="H4">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J4">
-        <v>0.4705882352941176</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K4">
         <v>0.1418604651162791</v>
@@ -715,22 +718,22 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="O4">
-        <v>0.02040816326530615</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.07540983606557372</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q4">
-        <v>0.0566844919786097</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.03571428571428575</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1885245901639343</v>
+        <v>1.167648353485079E-16</v>
       </c>
       <c r="T4">
-        <v>0.1204545454545456</v>
+        <v>0</v>
       </c>
       <c r="U4" t="s">
         <v>31</v>
@@ -759,13 +762,13 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="H5">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J5">
-        <v>0.4705882352941176</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K5">
         <v>0.1418604651162791</v>
@@ -780,22 +783,22 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="O5">
-        <v>0.02040816326530615</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.07540983606557372</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q5">
-        <v>0.0566844919786097</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.03571428571428575</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1885245901639343</v>
+        <v>1.167648353485079E-16</v>
       </c>
       <c r="T5">
-        <v>0.1204545454545456</v>
+        <v>0</v>
       </c>
       <c r="U5" t="s">
         <v>31</v>
@@ -824,13 +827,13 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="H6">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I6">
-        <v>0.4</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J6">
-        <v>0.4705882352941176</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K6">
         <v>0.1418604651162791</v>
@@ -845,22 +848,22 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="O6">
-        <v>0.02040816326530615</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.07540983606557372</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q6">
-        <v>0.0566844919786097</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.03571428571428575</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1885245901639343</v>
+        <v>1.167648353485079E-16</v>
       </c>
       <c r="T6">
-        <v>0.1204545454545456</v>
+        <v>0</v>
       </c>
       <c r="U6" t="s">
         <v>31</v>
@@ -886,13 +889,13 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="H7">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I7">
-        <v>0.4</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J7">
-        <v>0.4705882352941176</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K7">
         <v>0.1418604651162791</v>
@@ -907,22 +910,22 @@
         <v>0.5950413223140496</v>
       </c>
       <c r="O7">
-        <v>0.02857142857142858</v>
+        <v>0.008163265306122436</v>
       </c>
       <c r="P7">
-        <v>0.1901639344262295</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q7">
-        <v>0.124453087019932</v>
+        <v>0.06776859504132227</v>
       </c>
       <c r="R7">
-        <v>0.05000000000000002</v>
+        <v>0.01379310344827584</v>
       </c>
       <c r="S7">
-        <v>0.4754098360655737</v>
+        <v>0.2413793103448278</v>
       </c>
       <c r="T7">
-        <v>0.2644628099173554</v>
+        <v>0.128526645768025</v>
       </c>
       <c r="U7" t="s">
         <v>31</v>
@@ -951,13 +954,13 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="H8">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I8">
-        <v>0.4</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J8">
-        <v>0.4705882352941176</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K8">
         <v>0.1418604651162791</v>
@@ -972,22 +975,22 @@
         <v>0.588235294117647</v>
       </c>
       <c r="O8">
-        <v>0.03201970443349755</v>
+        <v>0.01161154116819141</v>
       </c>
       <c r="P8">
-        <v>0.1737704918032786</v>
+        <v>0.09836065573770497</v>
       </c>
       <c r="Q8">
-        <v>0.1176470588235293</v>
+        <v>0.06096256684491963</v>
       </c>
       <c r="R8">
-        <v>0.05603448275862072</v>
+        <v>0.01961950059453031</v>
       </c>
       <c r="S8">
-        <v>0.4344262295081966</v>
+        <v>0.2068965517241381</v>
       </c>
       <c r="T8">
-        <v>0.2499999999999998</v>
+        <v>0.1156186612576062</v>
       </c>
       <c r="U8" t="s">
         <v>31</v>
@@ -1016,13 +1019,13 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="H9">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I9">
-        <v>0.4</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J9">
-        <v>0.4705882352941176</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K9">
         <v>0.1418604651162791</v>
@@ -1037,22 +1040,22 @@
         <v>0.5739130434782609</v>
       </c>
       <c r="O9">
-        <v>0.03968253968253976</v>
+        <v>0.01927437641723362</v>
       </c>
       <c r="P9">
-        <v>0.1409836065573771</v>
+        <v>0.06557377049180341</v>
       </c>
       <c r="Q9">
-        <v>0.1033248081841432</v>
+        <v>0.04664031620553355</v>
       </c>
       <c r="R9">
-        <v>0.06944444444444459</v>
+        <v>0.03256704980842922</v>
       </c>
       <c r="S9">
-        <v>0.3524590163934427</v>
+        <v>0.1379310344827589</v>
       </c>
       <c r="T9">
-        <v>0.2195652173913044</v>
+        <v>0.08845577211394293</v>
       </c>
       <c r="U9" t="s">
         <v>31</v>
@@ -1081,13 +1084,13 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="H10">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I10">
-        <v>0.4</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J10">
-        <v>0.4705882352941176</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K10">
         <v>0.1418604651162791</v>
@@ -1102,22 +1105,22 @@
         <v>0.5739130434782609</v>
       </c>
       <c r="O10">
-        <v>0.03968253968253976</v>
+        <v>0.01927437641723362</v>
       </c>
       <c r="P10">
-        <v>0.1409836065573771</v>
+        <v>0.06557377049180341</v>
       </c>
       <c r="Q10">
-        <v>0.1033248081841432</v>
+        <v>0.04664031620553355</v>
       </c>
       <c r="R10">
-        <v>0.06944444444444459</v>
+        <v>0.03256704980842922</v>
       </c>
       <c r="S10">
-        <v>0.3524590163934427</v>
+        <v>0.1379310344827589</v>
       </c>
       <c r="T10">
-        <v>0.2195652173913044</v>
+        <v>0.08845577211394293</v>
       </c>
       <c r="U10" t="s">
         <v>31</v>
@@ -1146,13 +1149,13 @@
         <v>0.5272727272727273</v>
       </c>
       <c r="H11">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="I11">
-        <v>0.4</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="J11">
-        <v>0.4705882352941176</v>
+        <v>0.5272727272727273</v>
       </c>
       <c r="K11">
         <v>0.1418604651162791</v>
@@ -1167,22 +1170,22 @@
         <v>0.5739130434782609</v>
       </c>
       <c r="O11">
-        <v>0.03968253968253976</v>
+        <v>0.01927437641723362</v>
       </c>
       <c r="P11">
-        <v>0.1409836065573771</v>
+        <v>0.06557377049180341</v>
       </c>
       <c r="Q11">
-        <v>0.1033248081841432</v>
+        <v>0.04664031620553355</v>
       </c>
       <c r="R11">
-        <v>0.06944444444444459</v>
+        <v>0.03256704980842922</v>
       </c>
       <c r="S11">
-        <v>0.3524590163934427</v>
+        <v>0.1379310344827589</v>
       </c>
       <c r="T11">
-        <v>0.2195652173913044</v>
+        <v>0.08845577211394293</v>
       </c>
       <c r="U11" t="s">
         <v>31</v>
@@ -1208,13 +1211,13 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H12">
-        <v>0.3333333333333333</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="I12">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="J12">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K12">
         <v>0.1418604651162791</v>
@@ -1229,22 +1232,22 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="O12">
-        <v>0.04057971014492756</v>
+        <v>0.001572617946346</v>
       </c>
       <c r="P12">
-        <v>0.1049180327868853</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="Q12">
-        <v>0.0600649350649351</v>
+        <v>0.03702346041055726</v>
       </c>
       <c r="R12">
-        <v>0.1217391304347827</v>
+        <v>0.004223602484472114</v>
       </c>
       <c r="S12">
-        <v>0.1748633879781421</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="T12">
-        <v>0.1401515151515152</v>
+        <v>0.08198051948051967</v>
       </c>
       <c r="U12" t="s">
         <v>32</v>
@@ -1273,13 +1276,13 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H13">
-        <v>0.3333333333333333</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="I13">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="J13">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K13">
         <v>0.1418604651162791</v>
@@ -1294,22 +1297,22 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="O13">
-        <v>0.04057971014492756</v>
+        <v>0.001572617946346</v>
       </c>
       <c r="P13">
-        <v>0.1049180327868853</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="Q13">
-        <v>0.0600649350649351</v>
+        <v>0.03702346041055726</v>
       </c>
       <c r="R13">
-        <v>0.1217391304347827</v>
+        <v>0.004223602484472114</v>
       </c>
       <c r="S13">
-        <v>0.1748633879781421</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="T13">
-        <v>0.1401515151515152</v>
+        <v>0.08198051948051967</v>
       </c>
       <c r="U13" t="s">
         <v>32</v>
@@ -1338,13 +1341,13 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H14">
-        <v>0.3333333333333333</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="I14">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="J14">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K14">
         <v>0.1418604651162791</v>
@@ -1359,22 +1362,22 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="O14">
-        <v>0.03900709219858156</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>-0.02622950819672132</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.02304147465437789</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R14">
-        <v>0.1170212765957447</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>-0.04371584699453553</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.05376344086021508</v>
+        <v>1.229175491549281E-16</v>
       </c>
       <c r="U14" t="s">
         <v>32</v>
@@ -1403,13 +1406,13 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H15">
-        <v>0.3333333333333333</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="I15">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="J15">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K15">
         <v>0.1418604651162791</v>
@@ -1424,22 +1427,22 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="O15">
-        <v>0.03900709219858156</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>-0.02622950819672132</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.02304147465437789</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R15">
-        <v>0.1170212765957447</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>-0.04371584699453553</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.05376344086021508</v>
+        <v>1.229175491549281E-16</v>
       </c>
       <c r="U15" t="s">
         <v>32</v>
@@ -1468,13 +1471,13 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H16">
-        <v>0.3333333333333333</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="I16">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="J16">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K16">
         <v>0.1418604651162791</v>
@@ -1489,22 +1492,22 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="O16">
-        <v>0.03900709219858156</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>-0.02622950819672132</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.02304147465437789</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R16">
-        <v>0.1170212765957447</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-0.04371584699453553</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.05376344086021508</v>
+        <v>1.229175491549281E-16</v>
       </c>
       <c r="U16" t="s">
         <v>32</v>
@@ -1530,13 +1533,13 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H17">
-        <v>0.3333333333333333</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="I17">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="J17">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K17">
         <v>0.1418604651162791</v>
@@ -1551,22 +1554,22 @@
         <v>0.502994011976048</v>
       </c>
       <c r="O17">
-        <v>0.06289308176100633</v>
+        <v>0.02388598956242477</v>
       </c>
       <c r="P17">
-        <v>0.08852459016393444</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q17">
-        <v>0.07442258340461944</v>
+        <v>0.0513811087502416</v>
       </c>
       <c r="R17">
-        <v>0.188679245283019</v>
+        <v>0.06415094339622653</v>
       </c>
       <c r="S17">
-        <v>0.1475409836065574</v>
+        <v>0.2</v>
       </c>
       <c r="T17">
-        <v>0.1736526946107787</v>
+        <v>0.1137724550898207</v>
       </c>
       <c r="U17" t="s">
         <v>32</v>
@@ -1595,13 +1598,13 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H18">
-        <v>0.3333333333333333</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="I18">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="J18">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K18">
         <v>0.1418604651162791</v>
@@ -1616,22 +1619,22 @@
         <v>0.502994011976048</v>
       </c>
       <c r="O18">
-        <v>0.06289308176100633</v>
+        <v>0.02388598956242477</v>
       </c>
       <c r="P18">
-        <v>0.08852459016393444</v>
+        <v>0.1147540983606558</v>
       </c>
       <c r="Q18">
-        <v>0.07442258340461944</v>
+        <v>0.0513811087502416</v>
       </c>
       <c r="R18">
-        <v>0.188679245283019</v>
+        <v>0.06415094339622653</v>
       </c>
       <c r="S18">
-        <v>0.1475409836065574</v>
+        <v>0.2</v>
       </c>
       <c r="T18">
-        <v>0.1736526946107787</v>
+        <v>0.1137724550898207</v>
       </c>
       <c r="U18" t="s">
         <v>32</v>
@@ -1660,13 +1663,13 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H19">
-        <v>0.3333333333333333</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="I19">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="J19">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K19">
         <v>0.1418604651162791</v>
@@ -1681,22 +1684,22 @@
         <v>0.4691358024691358</v>
       </c>
       <c r="O19">
-        <v>0.04290429042904292</v>
+        <v>0.003897198230461363</v>
       </c>
       <c r="P19">
-        <v>0.0229508196721312</v>
+        <v>0.04918032786885251</v>
       </c>
       <c r="Q19">
-        <v>0.04056437389770728</v>
+        <v>0.01752289924332945</v>
       </c>
       <c r="R19">
-        <v>0.1287128712871288</v>
+        <v>0.01046676096181052</v>
       </c>
       <c r="S19">
-        <v>0.03825136612021866</v>
+        <v>0.08571428571428581</v>
       </c>
       <c r="T19">
-        <v>0.094650205761317</v>
+        <v>0.03880070546737235</v>
       </c>
       <c r="U19" t="s">
         <v>32</v>
@@ -1725,13 +1728,13 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H20">
-        <v>0.3333333333333333</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="I20">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="J20">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K20">
         <v>0.1418604651162791</v>
@@ -1746,22 +1749,22 @@
         <v>0.4691358024691358</v>
       </c>
       <c r="O20">
-        <v>0.04290429042904292</v>
+        <v>0.003897198230461363</v>
       </c>
       <c r="P20">
-        <v>0.0229508196721312</v>
+        <v>0.04918032786885251</v>
       </c>
       <c r="Q20">
-        <v>0.04056437389770728</v>
+        <v>0.01752289924332945</v>
       </c>
       <c r="R20">
-        <v>0.1287128712871288</v>
+        <v>0.01046676096181052</v>
       </c>
       <c r="S20">
-        <v>0.03825136612021866</v>
+        <v>0.08571428571428581</v>
       </c>
       <c r="T20">
-        <v>0.094650205761317</v>
+        <v>0.03880070546737235</v>
       </c>
       <c r="U20" t="s">
         <v>32</v>
@@ -1790,13 +1793,13 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H21">
-        <v>0.3333333333333333</v>
+        <v>0.3723404255319149</v>
       </c>
       <c r="I21">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="J21">
-        <v>0.4285714285714285</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K21">
         <v>0.1418604651162791</v>
@@ -1811,22 +1814,22 @@
         <v>0.4691358024691358</v>
       </c>
       <c r="O21">
-        <v>0.04290429042904292</v>
+        <v>0.003897198230461363</v>
       </c>
       <c r="P21">
-        <v>0.0229508196721312</v>
+        <v>0.04918032786885251</v>
       </c>
       <c r="Q21">
-        <v>0.04056437389770728</v>
+        <v>0.01752289924332945</v>
       </c>
       <c r="R21">
-        <v>0.1287128712871288</v>
+        <v>0.01046676096181052</v>
       </c>
       <c r="S21">
-        <v>0.03825136612021866</v>
+        <v>0.08571428571428581</v>
       </c>
       <c r="T21">
-        <v>0.094650205761317</v>
+        <v>0.03880070546737235</v>
       </c>
       <c r="U21" t="s">
         <v>32</v>
@@ -1852,13 +1855,13 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="H22">
-        <v>0.3333333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I22">
-        <v>0.2</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="J22">
-        <v>0.25</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="K22">
         <v>0.1418604651162791</v>
@@ -1873,22 +1876,22 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="O22">
-        <v>0.3238095238095238</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.1770491803278688</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.2291666666666666</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R22">
-        <v>0.9714285714285715</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0.885245901639344</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.9166666666666665</v>
+        <v>1.158493590913207E-16</v>
       </c>
       <c r="U22" t="s">
         <v>33</v>
@@ -1917,13 +1920,13 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="H23">
-        <v>0.3333333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I23">
-        <v>0.2</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="J23">
-        <v>0.25</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="K23">
         <v>0.1418604651162791</v>
@@ -1938,22 +1941,22 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="O23">
-        <v>0.3238095238095238</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.1770491803278688</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.2291666666666666</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R23">
-        <v>0.9714285714285715</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.885245901639344</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.9166666666666665</v>
+        <v>1.158493590913207E-16</v>
       </c>
       <c r="U23" t="s">
         <v>33</v>
@@ -1982,13 +1985,13 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="H24">
-        <v>0.3333333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I24">
-        <v>0.2</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="J24">
-        <v>0.25</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="K24">
         <v>0.1418604651162791</v>
@@ -2003,22 +2006,22 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="O24">
-        <v>0.3238095238095238</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.1770491803278688</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.2291666666666666</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R24">
-        <v>0.9714285714285715</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>0.885245901639344</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0.9166666666666665</v>
+        <v>1.158493590913207E-16</v>
       </c>
       <c r="U24" t="s">
         <v>33</v>
@@ -2047,13 +2050,13 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="H25">
-        <v>0.3333333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I25">
-        <v>0.2</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="J25">
-        <v>0.25</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="K25">
         <v>0.1418604651162791</v>
@@ -2068,22 +2071,22 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="O25">
-        <v>0.3238095238095238</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.1770491803278688</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.2291666666666666</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R25">
-        <v>0.9714285714285715</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>0.885245901639344</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0.9166666666666665</v>
+        <v>1.158493590913207E-16</v>
       </c>
       <c r="U25" t="s">
         <v>33</v>
@@ -2112,13 +2115,13 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="H26">
-        <v>0.3333333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I26">
-        <v>0.2</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="J26">
-        <v>0.25</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="K26">
         <v>0.1418604651162791</v>
@@ -2133,22 +2136,22 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="O26">
-        <v>0.3238095238095238</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0.1770491803278688</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0.2291666666666666</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R26">
-        <v>0.9714285714285715</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>0.885245901639344</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0.9166666666666665</v>
+        <v>1.158493590913207E-16</v>
       </c>
       <c r="U26" t="s">
         <v>33</v>
@@ -2174,13 +2177,13 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="H27">
-        <v>0.3333333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I27">
-        <v>0.2</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="J27">
-        <v>0.25</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="K27">
         <v>0.1418604651162791</v>
@@ -2195,22 +2198,22 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="O27">
-        <v>0.3423423423423423</v>
+        <v>0.01853281853281852</v>
       </c>
       <c r="P27">
-        <v>0.2098360655737705</v>
+        <v>0.03278688524590168</v>
       </c>
       <c r="Q27">
-        <v>0.2602040816326531</v>
+        <v>0.0310374149659865</v>
       </c>
       <c r="R27">
-        <v>1.027027027027027</v>
+        <v>0.02820211515863687</v>
       </c>
       <c r="S27">
-        <v>1.049180327868852</v>
+        <v>0.08695652173913054</v>
       </c>
       <c r="T27">
-        <v>1.040816326530612</v>
+        <v>0.06477373558118922</v>
       </c>
       <c r="U27" t="s">
         <v>33</v>
@@ -2239,13 +2242,13 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="H28">
-        <v>0.3333333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I28">
-        <v>0.2</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="J28">
-        <v>0.25</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="K28">
         <v>0.1418604651162791</v>
@@ -2260,22 +2263,22 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="O28">
-        <v>0.3508771929824562</v>
+        <v>0.02706766917293235</v>
       </c>
       <c r="P28">
-        <v>0.2262295081967213</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="Q28">
-        <v>0.2752525252525253</v>
+        <v>0.04608585858585873</v>
       </c>
       <c r="R28">
-        <v>1.052631578947369</v>
+        <v>0.04118993135011445</v>
       </c>
       <c r="S28">
-        <v>1.131147540983606</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="T28">
-        <v>1.101010101010101</v>
+        <v>0.0961791831357052</v>
       </c>
       <c r="U28" t="s">
         <v>33</v>
@@ -2304,13 +2307,13 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="H29">
-        <v>0.3333333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I29">
-        <v>0.2</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="J29">
-        <v>0.25</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="K29">
         <v>0.1418604651162791</v>
@@ -2325,22 +2328,22 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="O29">
-        <v>0.3238095238095238</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0.1770491803278688</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.2291666666666666</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R29">
-        <v>0.9714285714285715</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>0.885245901639344</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>0.9166666666666665</v>
+        <v>1.158493590913207E-16</v>
       </c>
       <c r="U29" t="s">
         <v>33</v>
@@ -2369,13 +2372,13 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="H30">
-        <v>0.3333333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I30">
-        <v>0.2</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="J30">
-        <v>0.25</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="K30">
         <v>0.1418604651162791</v>
@@ -2390,22 +2393,22 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="O30">
-        <v>0.3238095238095238</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0.1770491803278688</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.2291666666666666</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R30">
-        <v>0.9714285714285715</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0.885245901639344</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>0.9166666666666665</v>
+        <v>1.158493590913207E-16</v>
       </c>
       <c r="U30" t="s">
         <v>33</v>
@@ -2434,13 +2437,13 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="H31">
-        <v>0.3333333333333333</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="I31">
-        <v>0.2</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="J31">
-        <v>0.25</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="K31">
         <v>0.1418604651162791</v>
@@ -2455,22 +2458,22 @@
         <v>0.4791666666666666</v>
       </c>
       <c r="O31">
-        <v>0.3238095238095238</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0.1770491803278688</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0.2291666666666666</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="R31">
-        <v>0.9714285714285715</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0.885245901639344</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>0.9166666666666665</v>
+        <v>1.158493590913207E-16</v>
       </c>
       <c r="U31" t="s">
         <v>33</v>
@@ -2496,13 +2499,13 @@
         <v>0.0307692307692307</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.0307692307692307</v>
       </c>
       <c r="K32">
         <v>0.1418604651162791</v>
@@ -2517,25 +2520,28 @@
         <v>0.5064935064935064</v>
       </c>
       <c r="O32">
-        <v>0.4193548387096774</v>
+        <v>0.1693548387096774</v>
       </c>
       <c r="P32">
-        <v>0.639344262295082</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="Q32">
-        <v>0.5064935064935064</v>
+        <v>0.4757242757242757</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>0.6774193548387097</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>38.00000000000005</v>
       </c>
       <c r="T32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>15.46103896103899</v>
+      </c>
+      <c r="U32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -2558,13 +2564,13 @@
         <v>0.0307692307692307</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.0307692307692307</v>
       </c>
       <c r="K33">
         <v>0.1418604651162791</v>
@@ -2579,25 +2585,28 @@
         <v>0.4804469273743016</v>
       </c>
       <c r="O33">
-        <v>0.3644067796610169</v>
+        <v>0.1144067796610169</v>
       </c>
       <c r="P33">
-        <v>0.7049180327868853</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="Q33">
-        <v>0.4804469273743016</v>
+        <v>0.4496776966050709</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>0.4576271186440677</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>42.00000000000005</v>
       </c>
       <c r="T33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>14.61452513966484</v>
+      </c>
+      <c r="U33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -2620,13 +2629,13 @@
         <v>0.0307692307692307</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.0307692307692307</v>
       </c>
       <c r="K34">
         <v>0.1418604651162791</v>
@@ -2641,25 +2650,28 @@
         <v>0.4657534246575343</v>
       </c>
       <c r="O34">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="P34">
-        <v>0.5573770491803278</v>
+        <v>0.540983606557377</v>
       </c>
       <c r="Q34">
-        <v>0.4657534246575343</v>
+        <v>0.4349841938883036</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>33.00000000000004</v>
       </c>
       <c r="T34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>14.1369863013699</v>
+      </c>
+      <c r="U34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2682,13 +2694,13 @@
         <v>0.0307692307692307</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>0.0307692307692307</v>
       </c>
       <c r="K35">
         <v>0.1418604651162791</v>
@@ -2703,25 +2715,28 @@
         <v>0.4657534246575343</v>
       </c>
       <c r="O35">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="P35">
-        <v>0.5573770491803278</v>
+        <v>0.540983606557377</v>
       </c>
       <c r="Q35">
-        <v>0.4657534246575343</v>
+        <v>0.4349841938883036</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>33.00000000000004</v>
       </c>
       <c r="T35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>14.1369863013699</v>
+      </c>
+      <c r="U35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2744,13 +2759,13 @@
         <v>0.0307692307692307</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>0.0307692307692307</v>
       </c>
       <c r="K36">
         <v>0.1418604651162791</v>
@@ -2765,25 +2780,28 @@
         <v>0.4657534246575343</v>
       </c>
       <c r="O36">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="P36">
-        <v>0.5573770491803278</v>
+        <v>0.540983606557377</v>
       </c>
       <c r="Q36">
-        <v>0.4657534246575343</v>
+        <v>0.4349841938883036</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>33.00000000000004</v>
       </c>
       <c r="T36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>14.1369863013699</v>
+      </c>
+      <c r="U36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -2803,13 +2821,13 @@
         <v>0.0307692307692307</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.0307692307692307</v>
       </c>
       <c r="K37">
         <v>0.1418604651162791</v>
@@ -2824,25 +2842,28 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="O37">
-        <v>0.4123711340206185</v>
+        <v>0.1623711340206185</v>
       </c>
       <c r="P37">
-        <v>0.6557377049180327</v>
+        <v>0.6393442622950819</v>
       </c>
       <c r="Q37">
-        <v>0.5063291139240507</v>
+        <v>0.47555988315482</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>0.6494845360824741</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>39.00000000000004</v>
       </c>
       <c r="T37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>15.45569620253168</v>
+      </c>
+      <c r="U37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2865,13 +2886,13 @@
         <v>0.0307692307692307</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.0307692307692307</v>
       </c>
       <c r="K38">
         <v>0.1418604651162791</v>
@@ -2886,25 +2907,28 @@
         <v>0.3393939393939394</v>
       </c>
       <c r="O38">
-        <v>0.2692307692307692</v>
+        <v>0.01923076923076922</v>
       </c>
       <c r="P38">
-        <v>0.459016393442623</v>
+        <v>0.4426229508196722</v>
       </c>
       <c r="Q38">
-        <v>0.3393939393939394</v>
+        <v>0.3086247086247087</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>0.07692307692307687</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>27.00000000000004</v>
       </c>
       <c r="T38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>10.03030303030305</v>
+      </c>
+      <c r="U38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2927,13 +2951,13 @@
         <v>0.0307692307692307</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.0307692307692307</v>
       </c>
       <c r="K39">
         <v>0.1418604651162791</v>
@@ -2948,25 +2972,28 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="O39">
-        <v>0.4123711340206185</v>
+        <v>0.1623711340206185</v>
       </c>
       <c r="P39">
-        <v>0.6557377049180327</v>
+        <v>0.6393442622950819</v>
       </c>
       <c r="Q39">
-        <v>0.5063291139240507</v>
+        <v>0.47555988315482</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>0.6494845360824741</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>39.00000000000004</v>
       </c>
       <c r="T39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>15.45569620253168</v>
+      </c>
+      <c r="U39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -2989,13 +3016,13 @@
         <v>0.0307692307692307</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.0307692307692307</v>
       </c>
       <c r="K40">
         <v>0.1418604651162791</v>
@@ -3010,25 +3037,28 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="O40">
-        <v>0.4123711340206185</v>
+        <v>0.1623711340206185</v>
       </c>
       <c r="P40">
-        <v>0.6557377049180327</v>
+        <v>0.6393442622950819</v>
       </c>
       <c r="Q40">
-        <v>0.5063291139240507</v>
+        <v>0.47555988315482</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>0.6494845360824741</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>39.00000000000004</v>
       </c>
       <c r="T40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>15.45569620253168</v>
+      </c>
+      <c r="U40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -3051,13 +3081,13 @@
         <v>0.0307692307692307</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>0.0307692307692307</v>
       </c>
       <c r="K41">
         <v>0.1418604651162791</v>
@@ -3072,22 +3102,25 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="O41">
-        <v>0.4123711340206185</v>
+        <v>0.1623711340206185</v>
       </c>
       <c r="P41">
-        <v>0.6557377049180327</v>
+        <v>0.6393442622950819</v>
       </c>
       <c r="Q41">
-        <v>0.5063291139240507</v>
+        <v>0.47555988315482</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>0.6494845360824741</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>39.00000000000004</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>15.45569620253168</v>
+      </c>
+      <c r="U41" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
